--- a/biology/Zoologie/Gastrophrynoides_immaculatus/Gastrophrynoides_immaculatus.xlsx
+++ b/biology/Zoologie/Gastrophrynoides_immaculatus/Gastrophrynoides_immaculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrophrynoides immaculatus est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrophrynoides immaculatus est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Negeri Sembilan dans la péninsule Malaise. Elle n'est connue que dans sa localité type, le Gunung Besar Hantu, où elle est présente entre 800 et 1 400 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Negeri Sembilan dans la péninsule Malaise. Elle n'est connue que dans sa localité type, le Gunung Besar Hantu, où elle est présente entre 800 et 1 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du préfixe latin im-, « sans », et du latin maculatus, « tache », lui a été donné en référence à la livrée unie, l'autre espèce du genre, Gastrophrynoides borneensis, étant tachetée de blanc.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chan, Grismer, Norhayati &amp; Daicus, 2009 : A new species of Gastrophrynoides (Anura: Microhylidae): an addition to a previously monotypic genus and a new genus for Peninsular Malaysia. Zootaxa, no 2124, p. 63-68 (introduction).</t>
         </is>
